--- a/medicine/Enfance/Emmanuel_Viau/Emmanuel_Viau.xlsx
+++ b/medicine/Enfance/Emmanuel_Viau/Emmanuel_Viau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Viau, né en 1966, est un écrivain de science-fiction, auteur de littérature jeunesse, rédacteur (Bayard Presse), musicien, podcasteur et créateur de jeux de société français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuel Viau est né en 1966. Il est animateur de la collection Z'azimut (Fleurus Éditions) et rédacteur pour le magazine Je Bouquine aux éditions Bayard presse[1]. Il est également musicien (Fixxions), podcasteur (HyperSensible, Ma Vie d'Ado et autres podcasts Bayard) et créateur de jeux de société.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuel Viau est né en 1966. Il est animateur de la collection Z'azimut (Fleurus Éditions) et rédacteur pour le magazine Je Bouquine aux éditions Bayard presse. Il est également musicien (Fixxions), podcasteur (HyperSensible, Ma Vie d'Ado et autres podcasts Bayard) et créateur de jeux de société.
 </t>
         </is>
       </c>
@@ -542,25 +556,27 @@
           <t>Littérature jeunesse et science-fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anton et la musique cubaine, texte de Emmanuel Viau, illustrations de Olivier Tallec, Gallimard Jeunesse, 1998[2], livre-CD
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anton et la musique cubaine, texte de Emmanuel Viau, illustrations de Olivier Tallec, Gallimard Jeunesse, 1998, livre-CD
 La Menace des pierres, texte de Emmanuel Viau, illustrations de Laurent Hirn, coll. J'aime lire, Maximum n° 5, éditions Bayard Presse, 1999
 Planète verte peur bleue, Bayard Jeunesse coll. Je Bouquine Envol, numéro 513, 1999
-Bain de mer et soleil chaud, Je Bouquine (n 221), juillet 2002[3].
+Bain de mer et soleil chaud, Je Bouquine (n 221), juillet 2002.
 Magie, Monstres et Amour, Je Bouquine (n 222), aout 2002 .
 Série Tessa et Lomfor (Fleurus):
 Le Rivage des gobelins (2003)
-Le Lac sans âmes (2003)[4]
+Le Lac sans âmes (2003)
 La Forêt des ombres
-Les Falaises des géants[5]
-La Ville des traîtres[6]
+Les Falaises des géants
+La Ville des traîtres
 Les Marais du sorcier
 La Rivière des damnés
 Le Désert des trolls (2007)
 L'Océan du golem
 En direct de la guerre écrit par Emmanuel Viau, dessiné par Christophe Quet (3 tomes) publié chez Fleurus dans la collection Zeste en 2006
-La voyageuse, , texte de Emmanuel Viau, illustrations de Víctor de la Fuente, Fleurus, collection Zeste, 2006[7]</t>
+La voyageuse, , texte de Emmanuel Viau, illustrations de Víctor de la Fuente, Fleurus, collection Zeste, 2006</t>
         </is>
       </c>
     </row>
@@ -588,9 +604,11 @@
           <t>Jeux de société</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Killer Party, Cocktailgames, 2010 par Céline Devillers et Emmanuel Viau[8]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Killer Party, Cocktailgames, 2010 par Céline Devillers et Emmanuel Viau
 Panique au Resto, Tom-Tom et Nana (2018 - Bayard Jeux)[réf. nécessaire]</t>
         </is>
       </c>
